--- a/doc/现场设计室图纸细化管理台账.xlsx
+++ b/doc/现场设计室图纸细化管理台账.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20413"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\02_github\oa\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1A4DA8-BDB8-42BA-A48F-1402C3B43D6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,13 +20,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>康兴</author>
     <author>曾蓉</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -42,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="1">
+    <comment ref="T1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -136,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
   <si>
     <t>序号</t>
   </si>
@@ -343,20 +349,20 @@
   </si>
   <si>
     <t>预留，页面中也要提现，不用写计算公式</t>
+  </si>
+  <si>
+    <t>审核人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,151 +402,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -553,8 +415,21 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,194 +454,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -789,255 +478,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1107,59 +554,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1175,6 +707,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1432,19 +967,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:W11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="22.625" customWidth="1"/>
@@ -1458,13 +993,13 @@
     <col min="11" max="11" width="10.375" customWidth="1"/>
     <col min="12" max="12" width="18.25" customWidth="1"/>
     <col min="13" max="13" width="11.625" customWidth="1"/>
-    <col min="14" max="18" width="8.625" customWidth="1"/>
-    <col min="19" max="19" width="10.625" customWidth="1"/>
-    <col min="20" max="20" width="4.625" customWidth="1"/>
-    <col min="21" max="23" width="8.625" customWidth="1"/>
+    <col min="14" max="19" width="8.625" customWidth="1"/>
+    <col min="20" max="20" width="10.625" customWidth="1"/>
+    <col min="21" max="21" width="4.625" customWidth="1"/>
+    <col min="22" max="24" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="42.75" spans="1:23">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1507,35 +1042,38 @@
       <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="14.25" spans="1:23">
+    <row r="2" spans="1:24" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1578,7 +1116,9 @@
       <c r="N2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="4"/>
+      <c r="O2" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -1587,8 +1127,9 @@
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="14.25" spans="1:23">
+    <row r="3" spans="1:24" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1631,7 +1172,9 @@
       <c r="N3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="4"/>
+      <c r="O3" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -1640,8 +1183,9 @@
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
     </row>
-    <row r="4" ht="14.25" spans="1:23">
+    <row r="4" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1684,7 +1228,9 @@
       <c r="N4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="22"/>
+      <c r="O4" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
@@ -1693,8 +1239,9 @@
       <c r="U4" s="22"/>
       <c r="V4" s="22"/>
       <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
     </row>
-    <row r="5" ht="14.25" spans="1:23">
+    <row r="5" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1737,7 +1284,9 @@
       <c r="N5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="22"/>
+      <c r="O5" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
@@ -1746,8 +1295,9 @@
       <c r="U5" s="22"/>
       <c r="V5" s="22"/>
       <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
     </row>
-    <row r="6" ht="14.25" spans="1:23">
+    <row r="6" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1790,7 +1340,9 @@
       <c r="N6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="22"/>
+      <c r="O6" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
@@ -1799,8 +1351,9 @@
       <c r="U6" s="22"/>
       <c r="V6" s="22"/>
       <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
     </row>
-    <row r="7" ht="14.25" spans="1:23">
+    <row r="7" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1843,7 +1396,9 @@
       <c r="N7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="22"/>
+      <c r="O7" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
@@ -1852,8 +1407,9 @@
       <c r="U7" s="22"/>
       <c r="V7" s="22"/>
       <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
     </row>
-    <row r="8" ht="14.25" spans="1:23">
+    <row r="8" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1896,7 +1452,9 @@
       <c r="N8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="22"/>
+      <c r="O8" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
@@ -1905,8 +1463,9 @@
       <c r="U8" s="22"/>
       <c r="V8" s="22"/>
       <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
     </row>
-    <row r="11" ht="183" customHeight="1" spans="2:23">
+    <row r="11" spans="1:24" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="10" t="s">
         <v>58</v>
       </c>
@@ -1934,47 +1493,51 @@
       <c r="N11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="U11" s="10" t="s">
+      <c r="O11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="V11" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="W11" s="10" t="s">
         <v>66</v>
       </c>
+      <c r="X11" s="10" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
+    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
     <cfRule type="duplicateValues" dxfId="0" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/现场设计室图纸细化管理台账.xlsx
+++ b/doc/现场设计室图纸细化管理台账.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\02_github\oa\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1A4DA8-BDB8-42BA-A48F-1402C3B43D6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF4D9FB-52FF-4040-BF40-CFA4D57BAC6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,6 +33,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>康兴:</t>
@@ -41,6 +42,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -55,6 +57,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>康兴:</t>
@@ -63,6 +66,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -70,13 +74,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>康兴:</t>
@@ -85,6 +90,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -92,13 +98,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="U1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>曾蓉:</t>
@@ -107,6 +114,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -115,13 +123,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>康兴:</t>
@@ -130,6 +139,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -142,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="70">
   <si>
     <t>序号</t>
   </si>
@@ -352,6 +362,14 @@
   </si>
   <si>
     <t>审核人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别责任人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>李季</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -373,46 +391,54 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -973,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -992,14 +1018,14 @@
     <col min="10" max="10" width="8.625" customWidth="1"/>
     <col min="11" max="11" width="10.375" customWidth="1"/>
     <col min="12" max="12" width="18.25" customWidth="1"/>
-    <col min="13" max="13" width="11.625" customWidth="1"/>
-    <col min="14" max="19" width="8.625" customWidth="1"/>
-    <col min="20" max="20" width="10.625" customWidth="1"/>
-    <col min="21" max="21" width="4.625" customWidth="1"/>
-    <col min="22" max="24" width="8.625" customWidth="1"/>
+    <col min="13" max="14" width="11.625" customWidth="1"/>
+    <col min="15" max="20" width="8.625" customWidth="1"/>
+    <col min="21" max="21" width="10.625" customWidth="1"/>
+    <col min="22" max="22" width="4.625" customWidth="1"/>
+    <col min="23" max="25" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1039,41 +1065,44 @@
       <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="P1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1113,13 +1142,15 @@
       <c r="M2" s="17">
         <v>45534</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>32</v>
+      <c r="N2" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="4"/>
+      <c r="P2" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -1128,8 +1159,9 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
     </row>
-    <row r="3" spans="1:24" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1169,13 +1201,15 @@
       <c r="M3" s="17">
         <v>45534</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>32</v>
+      <c r="N3" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="4"/>
+      <c r="P3" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -1184,8 +1218,9 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
     </row>
-    <row r="4" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1225,13 +1260,15 @@
       <c r="M4" s="21">
         <v>45555</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="17" t="s">
         <v>46</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="22"/>
+      <c r="P4" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="22"/>
@@ -1240,8 +1277,9 @@
       <c r="V4" s="22"/>
       <c r="W4" s="22"/>
       <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
     </row>
-    <row r="5" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1281,13 +1319,13 @@
       <c r="M5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
@@ -1296,8 +1334,9 @@
       <c r="V5" s="22"/>
       <c r="W5" s="22"/>
       <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
     </row>
-    <row r="6" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1337,13 +1376,13 @@
       <c r="M6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
@@ -1352,8 +1391,9 @@
       <c r="V6" s="22"/>
       <c r="W6" s="22"/>
       <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
     </row>
-    <row r="7" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1393,13 +1433,15 @@
       <c r="M7" s="21">
         <v>45555</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="17" t="s">
         <v>46</v>
       </c>
       <c r="O7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
@@ -1408,8 +1450,9 @@
       <c r="V7" s="22"/>
       <c r="W7" s="22"/>
       <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
     </row>
-    <row r="8" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1449,13 +1492,15 @@
       <c r="M8" s="21">
         <v>45555</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="17" t="s">
         <v>46</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="22"/>
+      <c r="P8" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
@@ -1464,8 +1509,9 @@
       <c r="V8" s="22"/>
       <c r="W8" s="22"/>
       <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
     </row>
-    <row r="11" spans="1:24" ht="183" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="10" t="s">
         <v>58</v>
       </c>
@@ -1490,19 +1536,20 @@
       <c r="M11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="11"/>
+      <c r="O11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="P11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="V11" s="10" t="s">
+      <c r="W11" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="W11" s="10" t="s">
+      <c r="X11" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="X11" s="10" t="s">
+      <c r="Y11" s="10" t="s">
         <v>66</v>
       </c>
     </row>
